--- a/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
+++ b/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="5205" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Historicos x Categoria" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Controle do Projeto" sheetId="6" r:id="rId5"/>
     <sheet name="ÁREAS PADRÃO" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +24,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1600,6 +1600,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1625,27 +1634,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1666,15 +1675,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1960,11 +1960,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199507968"/>
-        <c:axId val="199298432"/>
+        <c:axId val="456747024"/>
+        <c:axId val="456748200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199507968"/>
+        <c:axId val="456747024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +1984,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199298432"/>
+        <c:crossAx val="456748200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1992,7 +1992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199298432"/>
+        <c:axId val="456748200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199507968"/>
+        <c:crossAx val="456747024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2055,6 +2055,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2169,6 +2170,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2213,11 +2215,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="199509504"/>
-        <c:axId val="199300160"/>
+        <c:axId val="456741144"/>
+        <c:axId val="456744280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199509504"/>
+        <c:axId val="456741144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,7 +2229,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199300160"/>
+        <c:crossAx val="456744280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2235,7 +2237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199300160"/>
+        <c:axId val="456744280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,13 +2248,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199509504"/>
+        <c:crossAx val="456741144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2908,7 +2911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2943,7 +2946,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3154,36 +3157,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" style="99" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="99" customWidth="1"/>
     <col min="2" max="2" width="31" style="99" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="99" customWidth="1"/>
-    <col min="4" max="4" width="59.125" style="99" customWidth="1"/>
-    <col min="5" max="5" width="53.125" style="99" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="99" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" style="99" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" style="99" customWidth="1"/>
     <col min="6" max="6" width="15" style="99" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="99" customWidth="1"/>
-    <col min="8" max="8" width="25.375" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="99" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="99" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="99" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="99" customWidth="1"/>
-    <col min="11" max="11" width="15.625" style="99" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="99" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="99" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="99"/>
+    <col min="10" max="10" width="2.85546875" style="99" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
       <c r="E1" s="95" t="s">
         <v>9</v>
       </c>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="G1" s="97">
         <f ca="1">TODAY()</f>
-        <v>42809</v>
+        <v>42849</v>
       </c>
       <c r="H1" s="98" t="s">
         <v>11</v>
@@ -3234,7 +3237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="107" t="s">
         <v>74</v>
       </c>
@@ -3251,28 +3254,26 @@
         <v>75</v>
       </c>
       <c r="F4" s="128">
-        <v>42311</v>
+        <v>42299</v>
       </c>
       <c r="G4" s="128">
-        <v>42446</v>
+        <v>42450</v>
       </c>
       <c r="H4" s="108">
         <f t="shared" ref="H4:H14" si="0">DAYS360(F4,G4)</f>
-        <v>134</v>
-      </c>
-      <c r="I4" s="109">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="I4" s="109"/>
       <c r="K4" s="110">
         <f>AVERAGE(H13,H34)</f>
-        <v>87.474999999999994</v>
+        <v>88.775000000000006</v>
       </c>
       <c r="L4" s="111">
         <v>0.15</v>
       </c>
       <c r="M4" s="96">
         <f>K4-(K4*L4)</f>
-        <v>74.353749999999991</v>
+        <v>75.458750000000009</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3467,14 +3468,14 @@
         <v>81</v>
       </c>
       <c r="F11" s="128">
-        <v>41337</v>
+        <v>41309</v>
       </c>
       <c r="G11" s="128">
-        <v>41430</v>
+        <v>41431</v>
       </c>
       <c r="H11" s="108">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3493,10 +3494,10 @@
       <c r="E12" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="128">
         <v>42209</v>
       </c>
-      <c r="G12" s="97">
+      <c r="G12" s="128">
         <v>42683</v>
       </c>
       <c r="H12" s="108">
@@ -3508,12 +3509,12 @@
       <c r="A13" s="116"/>
       <c r="B13" s="107"/>
       <c r="C13" s="117"/>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="134"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="137"/>
       <c r="H13" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3536,27 +3537,17 @@
         <f>LOWER("CONTRATAÇÃO - SERVIÇO DE MANUTENÇÃO PREDIAL -   LIMPEZA DE VIDROS - CAPITAL/ INTERIOR")</f>
         <v>contratação - serviço de manutenção predial -   limpeza de vidros - capital/ interior</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="128">
         <v>42020</v>
       </c>
-      <c r="G14" s="97">
+      <c r="G14" s="128">
         <v>42671</v>
       </c>
       <c r="H14" s="108">
         <f t="shared" si="0"/>
         <v>642</v>
       </c>
-      <c r="I14" s="99">
-        <v>689</v>
-      </c>
-      <c r="K14" s="109">
-        <f>I14-H14</f>
-        <v>47</v>
-      </c>
-      <c r="L14" s="99">
-        <f>K14*24</f>
-        <v>1128</v>
-      </c>
+      <c r="K14" s="109"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
@@ -3574,18 +3565,18 @@
       <c r="E15" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="97">
-        <v>42439</v>
-      </c>
-      <c r="G15" s="97">
-        <v>42668</v>
+      <c r="F15" s="128">
+        <v>42376</v>
+      </c>
+      <c r="G15" s="128">
+        <v>42657</v>
       </c>
       <c r="H15" s="108">
         <f t="shared" ref="H15:H33" si="1">DAYS360(F15,G15)</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="107" t="s">
         <v>89</v>
       </c>
@@ -3720,7 +3711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="107" t="s">
         <v>101</v>
       </c>
@@ -3747,7 +3738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="107" t="s">
         <v>103</v>
       </c>
@@ -3828,7 +3819,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="107" t="s">
         <v>140</v>
       </c>
@@ -3855,7 +3846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="107" t="s">
         <v>144</v>
       </c>
@@ -3882,7 +3873,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>147</v>
       </c>
@@ -3936,7 +3927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="125" t="s">
         <v>153</v>
       </c>
@@ -4044,7 +4035,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="107" t="s">
         <v>106</v>
       </c>
@@ -4072,18 +4063,18 @@
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="132" t="s">
+      <c r="A34" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="133"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="134"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="137"/>
       <c r="H34" s="108">
         <f>AVERAGE(H14:H33)</f>
-        <v>174.95</v>
+        <v>177.55</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4318,19 +4309,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J148"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.25" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -4365,7 +4356,7 @@
       </c>
       <c r="B4" s="1">
         <f>AVERAGEIF('Dados Historicos x Categoria'!$C$4:$C$33,A4,'Dados Historicos x Categoria'!$H$4:$H$33)</f>
-        <v>242</v>
+        <v>250.16666666666666</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>186</v>
@@ -4424,104 +4415,104 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="138" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="80" t="s">
@@ -5172,22 +5163,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="47"/>
-    <col min="2" max="2" width="15.625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="47" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="47"/>
-    <col min="6" max="6" width="29.375" style="47" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="47" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="47" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="47"/>
+    <col min="2" max="2" width="15.5703125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="47"/>
+    <col min="6" max="6" width="29.42578125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="47" customWidth="1"/>
     <col min="9" max="9" width="12" style="47" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.25">
@@ -5223,19 +5214,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="45" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138">
+      <c r="A2" s="142">
         <v>1</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="143">
+      <c r="E2" s="141">
         <v>2</v>
       </c>
       <c r="F2" s="31" t="s">
@@ -5252,12 +5243,12 @@
       </c>
       <c r="J2" s="31"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="143"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="31" t="s">
         <v>60</v>
       </c>
@@ -5273,19 +5264,19 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143">
+      <c r="A4" s="141">
         <v>2</v>
       </c>
       <c r="B4" s="144">
         <v>43042</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="138">
+      <c r="E4" s="142">
         <v>2</v>
       </c>
       <c r="F4" s="31" t="s">
@@ -5302,12 +5293,12 @@
       </c>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139"/>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="143"/>
       <c r="F5" s="37" t="s">
         <v>54</v>
       </c>
@@ -5322,20 +5313,20 @@
       </c>
       <c r="J5" s="37"/>
     </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="143">
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="141">
         <v>3</v>
       </c>
-      <c r="B6" s="141">
+      <c r="B6" s="145">
         <v>42683</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="138">
+      <c r="E6" s="142">
         <v>2</v>
       </c>
       <c r="F6" s="31" t="s">
@@ -5353,11 +5344,11 @@
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
       <c r="F7" s="55" t="s">
         <v>67</v>
       </c>
@@ -5372,12 +5363,12 @@
       </c>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="141"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="53" t="s">
         <v>69</v>
       </c>
@@ -5392,12 +5383,12 @@
       </c>
       <c r="J8" s="53"/>
     </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
       <c r="F9" s="53" t="s">
         <v>73</v>
       </c>
@@ -5413,11 +5404,11 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="143"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
       <c r="F10" s="31" t="s">
         <v>70</v>
       </c>
@@ -5434,20 +5425,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="143">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="141">
         <v>4</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="143">
+      <c r="E11" s="141">
         <v>2</v>
       </c>
       <c r="F11" s="53" t="s">
@@ -5464,12 +5455,12 @@
       </c>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="143"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="55" t="s">
         <v>58</v>
       </c>
@@ -5484,12 +5475,12 @@
       </c>
       <c r="J12" s="53"/>
     </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
+    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="142"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
       <c r="F13" s="70" t="s">
         <v>72</v>
       </c>
@@ -5499,23 +5490,23 @@
       <c r="H13" s="68">
         <v>42690</v>
       </c>
-      <c r="I13" s="154" t="s">
+      <c r="I13" s="133" t="s">
         <v>57</v>
       </c>
       <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="138">
+      <c r="A14" s="142">
         <v>5</v>
       </c>
-      <c r="B14" s="141">
+      <c r="B14" s="145">
         <v>42705</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138" t="s">
+      <c r="C14" s="142"/>
+      <c r="D14" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E14" s="142">
         <v>2</v>
       </c>
       <c r="F14" s="71" t="s">
@@ -5532,12 +5523,12 @@
       </c>
       <c r="J14" s="67"/>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="142"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
+    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="143"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
       <c r="F15" s="71" t="s">
         <v>120</v>
       </c>
@@ -5553,11 +5544,11 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="139"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="143"/>
       <c r="F16" s="71" t="s">
         <v>122</v>
       </c>
@@ -5573,13 +5564,13 @@
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="139"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="139"/>
+      <c r="E17" s="143"/>
       <c r="F17" s="71" t="s">
         <v>123</v>
       </c>
@@ -5595,13 +5586,13 @@
       <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="138" t="s">
+      <c r="A18" s="143"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="139"/>
+      <c r="E18" s="143"/>
       <c r="F18" s="71" t="s">
         <v>125</v>
       </c>
@@ -5617,24 +5608,24 @@
       <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="143">
+      <c r="A20" s="141">
         <v>6</v>
       </c>
       <c r="B20" s="144">
         <v>42773</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143" t="s">
+      <c r="C20" s="141"/>
+      <c r="D20" s="141" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="143">
+      <c r="E20" s="141">
         <v>2</v>
       </c>
       <c r="F20" s="129" t="s">
@@ -5648,11 +5639,11 @@
       <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="144"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
       <c r="F21" s="129" t="s">
         <v>175</v>
       </c>
@@ -5666,11 +5657,11 @@
       <c r="J21" s="129"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="144"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
       <c r="F22" s="129" t="s">
         <v>177</v>
       </c>
@@ -5683,12 +5674,12 @@
       </c>
       <c r="J22" s="129"/>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="141"/>
       <c r="B23" s="144"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
       <c r="F23" s="129" t="s">
         <v>180</v>
       </c>
@@ -5696,12 +5687,12 @@
         <v>192</v>
       </c>
       <c r="H23" s="129"/>
-      <c r="I23" s="153" t="s">
+      <c r="I23" s="132" t="s">
         <v>51</v>
       </c>
       <c r="J23" s="129"/>
     </row>
-    <row r="24" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A24" s="129">
         <v>7</v>
       </c>
@@ -5717,7 +5708,7 @@
       <c r="E24" s="129">
         <v>2</v>
       </c>
-      <c r="F24" s="152" t="s">
+      <c r="F24" s="131" t="s">
         <v>191</v>
       </c>
       <c r="G24" s="129" t="s">
@@ -5745,6 +5736,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="E20:E23"/>
@@ -5761,21 +5767,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5792,13 +5783,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5829,7 +5820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -5919,7 +5910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>85</v>
       </c>
@@ -5959,24 +5950,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150" t="s">
+      <c r="D1" s="153"/>
+      <c r="E1" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="151"/>
+      <c r="F1" s="154"/>
       <c r="G1" s="15" t="s">
         <v>35</v>
       </c>
@@ -5995,9 +5986,9 @@
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146"/>
-      <c r="B2" s="148"/>
+    <row r="2" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149"/>
+      <c r="B2" s="151"/>
       <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
@@ -6466,7 +6457,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.625" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
+++ b/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="5205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Historicos x Categoria" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,32 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Autor</author>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A4" authorId="0" shapeId="0">
@@ -34,7 +59,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Autor:
+          <t xml:space="preserve">Author:
 </t>
         </r>
       </text>
@@ -599,9 +624,6 @@
   </si>
   <si>
     <t>MÉDIA SECRETARIA DE GESTÃO DE SERVIÇOS</t>
-  </si>
-  <si>
-    <t>Média de Coordenadoria de Segurança e Transportes</t>
   </si>
   <si>
     <t>ÁREA</t>
@@ -680,6 +702,9 @@
   <si>
     <t>Silmara, Eva, Alceu, Julian, Yuri, Pedro,Ivanilda, Flavio,Ruhan, Ivis, André</t>
   </si>
+  <si>
+    <t>Média de Coordenadoria de Segurança e Transportes e Apoio Administrativo</t>
+  </si>
 </sst>
 </file>
 
@@ -690,7 +715,7 @@
     <numFmt numFmtId="165" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +792,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1251,7 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1561,9 +1593,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1571,9 +1600,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1634,27 +1660,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1675,6 +1701,9 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1697,7 +1726,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1709,6 +1738,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1750,6 +1780,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1960,11 +1991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="456747024"/>
-        <c:axId val="456748200"/>
+        <c:axId val="1310694288"/>
+        <c:axId val="1310701360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="456747024"/>
+        <c:axId val="1310694288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,10 +2012,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456748200"/>
+        <c:crossAx val="1310701360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1992,7 +2023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="456748200"/>
+        <c:axId val="1310701360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456747024"/>
+        <c:crossAx val="1310694288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2023,7 +2054,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2196,10 +2227,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>165</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>175</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,11 +2246,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="456741144"/>
-        <c:axId val="456744280"/>
+        <c:axId val="1310694832"/>
+        <c:axId val="1310695376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="456741144"/>
+        <c:axId val="1310694832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2260,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456744280"/>
+        <c:crossAx val="1310695376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="456744280"/>
+        <c:axId val="1310695376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2279,270 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456741144"/>
+        <c:crossAx val="1310694832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="109"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="9"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MÉDIA GERAL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> DE LEAD TIME EM DIAS POR  FORMA DE CONTRATACAO</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15841387831917336"/>
+          <c:y val="1.4511304677696211E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graficos!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MÉDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="50000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="35000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="37000"/>
+                      <a:satMod val="300000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:tint val="15000"/>
+                      <a:satMod val="350000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="1"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graficos!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Licitação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dispensa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Registro Preços</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graficos!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>135.14285714285714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="1133839856"/>
+        <c:axId val="1133840400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1133839856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1133840400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1133840400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1133839856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2359,15 +2653,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>425823</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>634252</xdr:rowOff>
+      <xdr:rowOff>62752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>280146</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2382,6 +2676,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2869,9 +3195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2909,7 +3235,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2981,7 +3307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3154,12 +3480,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,12 +3507,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="95" t="s">
         <v>9</v>
       </c>
@@ -3195,7 +3521,7 @@
       </c>
       <c r="G1" s="97">
         <f ca="1">TODAY()</f>
-        <v>42849</v>
+        <v>42850</v>
       </c>
       <c r="H1" s="98" t="s">
         <v>11</v>
@@ -3207,7 +3533,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="100" t="s">
         <v>112</v>
@@ -3242,7 +3568,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>111</v>
@@ -3253,10 +3579,10 @@
       <c r="E4" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="128">
+      <c r="F4" s="126">
         <v>42299</v>
       </c>
-      <c r="G4" s="128">
+      <c r="G4" s="126">
         <v>42450</v>
       </c>
       <c r="H4" s="108">
@@ -3266,14 +3592,14 @@
       <c r="I4" s="109"/>
       <c r="K4" s="110">
         <f>AVERAGE(H13,H34)</f>
-        <v>88.775000000000006</v>
+        <v>171.35833333333335</v>
       </c>
       <c r="L4" s="111">
         <v>0.15</v>
       </c>
       <c r="M4" s="96">
         <f>K4-(K4*L4)</f>
-        <v>75.458750000000009</v>
+        <v>145.65458333333333</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3281,7 +3607,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>127</v>
@@ -3292,10 +3618,10 @@
       <c r="E5" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="126">
         <v>42118</v>
       </c>
-      <c r="G5" s="128">
+      <c r="G5" s="126">
         <v>42221</v>
       </c>
       <c r="H5" s="108">
@@ -3311,7 +3637,7 @@
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>127</v>
@@ -3322,10 +3648,10 @@
       <c r="E6" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="126">
         <v>42263</v>
       </c>
-      <c r="G6" s="128">
+      <c r="G6" s="126">
         <v>42342</v>
       </c>
       <c r="H6" s="108">
@@ -3341,7 +3667,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>127</v>
@@ -3352,10 +3678,10 @@
       <c r="E7" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="126">
         <v>42633</v>
       </c>
-      <c r="G7" s="128">
+      <c r="G7" s="126">
         <v>42695</v>
       </c>
       <c r="H7" s="108">
@@ -3371,7 +3697,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>127</v>
@@ -3382,10 +3708,10 @@
       <c r="E8" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="126">
         <v>42422</v>
       </c>
-      <c r="G8" s="128">
+      <c r="G8" s="126">
         <v>42643</v>
       </c>
       <c r="H8" s="108">
@@ -3401,7 +3727,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>127</v>
@@ -3412,10 +3738,10 @@
       <c r="E9" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="126">
         <v>41955</v>
       </c>
-      <c r="G9" s="128">
+      <c r="G9" s="126">
         <v>42179</v>
       </c>
       <c r="H9" s="108">
@@ -3429,7 +3755,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>127</v>
@@ -3440,10 +3766,10 @@
       <c r="E10" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="126">
         <v>41738</v>
       </c>
-      <c r="G10" s="128">
+      <c r="G10" s="126">
         <v>41850</v>
       </c>
       <c r="H10" s="108">
@@ -3456,7 +3782,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>111</v>
@@ -3467,10 +3793,10 @@
       <c r="E11" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="126">
         <v>41309</v>
       </c>
-      <c r="G11" s="128">
+      <c r="G11" s="126">
         <v>41431</v>
       </c>
       <c r="H11" s="108">
@@ -3483,7 +3809,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>111</v>
@@ -3494,10 +3820,10 @@
       <c r="E12" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="128">
+      <c r="F12" s="126">
         <v>42209</v>
       </c>
-      <c r="G12" s="128">
+      <c r="G12" s="126">
         <v>42683</v>
       </c>
       <c r="H12" s="108">
@@ -3505,19 +3831,19 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="116"/>
       <c r="B13" s="107"/>
       <c r="C13" s="117"/>
-      <c r="D13" s="136" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
+      <c r="D13" s="134" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="135"/>
       <c r="H13" s="108">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(H4:H12)</f>
+        <v>169.66666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3525,7 +3851,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>111</v>
@@ -3537,10 +3863,10 @@
         <f>LOWER("CONTRATAÇÃO - SERVIÇO DE MANUTENÇÃO PREDIAL -   LIMPEZA DE VIDROS - CAPITAL/ INTERIOR")</f>
         <v>contratação - serviço de manutenção predial -   limpeza de vidros - capital/ interior</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="126">
         <v>42020</v>
       </c>
-      <c r="G14" s="128">
+      <c r="G14" s="126">
         <v>42671</v>
       </c>
       <c r="H14" s="108">
@@ -3554,7 +3880,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="107" t="s">
         <v>111</v>
@@ -3565,10 +3891,10 @@
       <c r="E15" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="126">
         <v>42376</v>
       </c>
-      <c r="G15" s="128">
+      <c r="G15" s="126">
         <v>42657</v>
       </c>
       <c r="H15" s="108">
@@ -3581,7 +3907,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>111</v>
@@ -3592,10 +3918,10 @@
       <c r="E16" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="97">
-        <v>42521</v>
-      </c>
-      <c r="G16" s="97">
+      <c r="F16" s="126">
+        <v>42520</v>
+      </c>
+      <c r="G16" s="126">
         <v>42661</v>
       </c>
       <c r="H16" s="108">
@@ -3608,7 +3934,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>111</v>
@@ -3619,10 +3945,10 @@
       <c r="E17" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="97">
+      <c r="F17" s="126">
         <v>41242</v>
       </c>
-      <c r="G17" s="97">
+      <c r="G17" s="126">
         <v>41472</v>
       </c>
       <c r="H17" s="108">
@@ -3635,7 +3961,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="107" t="s">
         <v>111</v>
@@ -3646,15 +3972,15 @@
       <c r="E18" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="97">
-        <v>41698</v>
-      </c>
-      <c r="G18" s="97">
+      <c r="F18" s="126">
+        <v>41697</v>
+      </c>
+      <c r="G18" s="126">
         <v>41932</v>
       </c>
       <c r="H18" s="108">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3662,7 +3988,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="107" t="s">
         <v>111</v>
@@ -3673,15 +3999,15 @@
       <c r="E19" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="97">
-        <v>42277</v>
-      </c>
-      <c r="G19" s="97">
-        <v>42681</v>
+      <c r="F19" s="126">
+        <v>42272</v>
+      </c>
+      <c r="G19" s="126">
+        <v>42678</v>
       </c>
       <c r="H19" s="108">
         <f t="shared" si="1"/>
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3689,7 +4015,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>127</v>
@@ -3700,15 +4026,15 @@
       <c r="E20" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="97">
-        <v>42136</v>
-      </c>
-      <c r="G20" s="118">
+      <c r="F20" s="126">
+        <v>42135</v>
+      </c>
+      <c r="G20" s="153">
         <v>42171</v>
       </c>
       <c r="H20" s="108">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3716,7 +4042,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>111</v>
@@ -3727,15 +4053,15 @@
       <c r="E21" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="97">
-        <v>41541</v>
-      </c>
-      <c r="G21" s="97">
+      <c r="F21" s="126">
+        <v>41540</v>
+      </c>
+      <c r="G21" s="126">
         <v>41634</v>
       </c>
       <c r="H21" s="108">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3743,26 +4069,26 @@
         <v>103</v>
       </c>
       <c r="B22" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="118" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="97">
-        <v>41575</v>
-      </c>
-      <c r="G22" s="97">
+      <c r="F22" s="126">
+        <v>41548</v>
+      </c>
+      <c r="G22" s="126">
         <v>41638</v>
       </c>
       <c r="H22" s="108">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3770,24 +4096,24 @@
         <v>135</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="121" t="s">
+      <c r="E23" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="126">
         <v>42580</v>
       </c>
-      <c r="G23" s="122">
+      <c r="G23" s="126">
         <v>42641</v>
       </c>
-      <c r="H23" s="123">
+      <c r="H23" s="121">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
@@ -3797,26 +4123,26 @@
         <v>137</v>
       </c>
       <c r="B24" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="121" t="s">
+      <c r="D24" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="122">
-        <v>42612</v>
-      </c>
-      <c r="G24" s="122">
+      <c r="F24" s="126">
+        <v>42610</v>
+      </c>
+      <c r="G24" s="126">
         <v>42704</v>
       </c>
-      <c r="H24" s="123">
+      <c r="H24" s="121">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3824,26 +4150,26 @@
         <v>140</v>
       </c>
       <c r="B25" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="124" t="s">
+      <c r="E25" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="122">
-        <v>42068</v>
-      </c>
-      <c r="G25" s="122">
-        <v>42149</v>
-      </c>
-      <c r="H25" s="123">
+      <c r="F25" s="126">
+        <v>42067</v>
+      </c>
+      <c r="G25" s="126">
+        <v>42114</v>
+      </c>
+      <c r="H25" s="121">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3851,26 +4177,26 @@
         <v>144</v>
       </c>
       <c r="B26" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="121" t="s">
+      <c r="D26" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="122">
-        <v>42410</v>
-      </c>
-      <c r="G26" s="122">
-        <v>42690</v>
-      </c>
-      <c r="H26" s="123">
+      <c r="F26" s="126">
+        <v>42409</v>
+      </c>
+      <c r="G26" s="126">
+        <v>42641</v>
+      </c>
+      <c r="H26" s="121">
         <f t="shared" si="1"/>
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3878,26 +4204,26 @@
         <v>147</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="121" t="s">
+      <c r="D27" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="124" t="s">
+      <c r="E27" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="122">
-        <v>41208</v>
-      </c>
-      <c r="G27" s="122">
-        <v>41348</v>
-      </c>
-      <c r="H27" s="123">
+      <c r="F27" s="126">
+        <v>41207</v>
+      </c>
+      <c r="G27" s="126">
+        <v>41346</v>
+      </c>
+      <c r="H27" s="121">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3905,53 +4231,53 @@
         <v>152</v>
       </c>
       <c r="B28" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="121" t="s">
+      <c r="D28" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="124" t="s">
+      <c r="E28" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="122">
-        <v>40927</v>
-      </c>
-      <c r="G28" s="122">
-        <v>41012</v>
-      </c>
-      <c r="H28" s="123">
+      <c r="F28" s="126">
+        <v>40926</v>
+      </c>
+      <c r="G28" s="126">
+        <v>41015</v>
+      </c>
+      <c r="H28" s="121">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="123" t="s">
         <v>153</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="121" t="s">
+      <c r="D29" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="124" t="s">
+      <c r="E29" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="122">
-        <v>41885</v>
-      </c>
-      <c r="G29" s="122">
+      <c r="F29" s="126">
+        <v>41884</v>
+      </c>
+      <c r="G29" s="126">
         <v>41996</v>
       </c>
-      <c r="H29" s="123">
+      <c r="H29" s="121">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3959,26 +4285,26 @@
         <v>155</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C30" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="124" t="s">
+      <c r="D30" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="126" t="s">
+      <c r="E30" s="124" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="122">
-        <v>40945</v>
-      </c>
-      <c r="G30" s="122">
-        <v>41093</v>
-      </c>
-      <c r="H30" s="123">
+      <c r="F30" s="126">
+        <v>40944</v>
+      </c>
+      <c r="G30" s="126">
+        <v>41103</v>
+      </c>
+      <c r="H30" s="121">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3986,26 +4312,26 @@
         <v>158</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="121" t="s">
+      <c r="D31" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="124" t="s">
+      <c r="E31" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="122">
-        <v>41411</v>
-      </c>
-      <c r="G31" s="122">
-        <v>41666</v>
-      </c>
-      <c r="H31" s="123">
+      <c r="F31" s="126">
+        <v>41410</v>
+      </c>
+      <c r="G31" s="126">
+        <v>41626</v>
+      </c>
+      <c r="H31" s="121">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4013,26 +4339,26 @@
         <v>161</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="121" t="s">
+      <c r="D32" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="124" t="s">
+      <c r="E32" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="122">
-        <v>41905</v>
-      </c>
-      <c r="G32" s="122">
+      <c r="F32" s="126">
+        <v>41896</v>
+      </c>
+      <c r="G32" s="126">
         <v>41999</v>
       </c>
-      <c r="H32" s="123">
+      <c r="H32" s="121">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4040,7 +4366,7 @@
         <v>106</v>
       </c>
       <c r="B33" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C33" s="107" t="s">
         <v>111</v>
@@ -4051,30 +4377,30 @@
       <c r="E33" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="97">
-        <v>42229</v>
-      </c>
-      <c r="G33" s="97">
-        <v>42354</v>
+      <c r="F33" s="126">
+        <v>42227</v>
+      </c>
+      <c r="G33" s="126">
+        <v>42321</v>
       </c>
       <c r="H33" s="108">
         <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="135" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="133" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="137"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="135"/>
       <c r="H34" s="108">
         <f>AVERAGE(H14:H33)</f>
-        <v>177.55</v>
+        <v>173.05</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4290,6 +4616,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -4309,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J148"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,7 +4657,7 @@
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
@@ -4344,10 +4671,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4356,13 +4683,13 @@
       </c>
       <c r="B4" s="1">
         <f>AVERAGEIF('Dados Historicos x Categoria'!$C$4:$C$33,A4,'Dados Historicos x Categoria'!$H$4:$H$33)</f>
-        <v>250.16666666666666</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4371,10 +4698,10 @@
       </c>
       <c r="B5" s="1">
         <f>AVERAGEIF('Dados Historicos x Categoria'!$C$4:$C$33,A5,'Dados Historicos x Categoria'!$H$4:$H$33)</f>
-        <v>103.6</v>
+        <v>106.6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="1">
         <v>169</v>
@@ -4386,7 +4713,7 @@
       </c>
       <c r="B6" s="76">
         <f>AVERAGEIF('Dados Historicos x Categoria'!$C$4:$C$33,A6,'Dados Historicos x Categoria'!$H$4:$H$33)</f>
-        <v>148.57142857142858</v>
+        <v>135.14285714285714</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4415,104 +4742,104 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="80" t="s">
@@ -5214,19 +5541,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="45" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142">
+      <c r="A2" s="139">
         <v>1</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="141">
+      <c r="E2" s="142">
         <v>2</v>
       </c>
       <c r="F2" s="31" t="s">
@@ -5244,11 +5571,11 @@
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="143"/>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="31" t="s">
         <v>60</v>
       </c>
@@ -5264,19 +5591,19 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="141">
+      <c r="A4" s="142">
         <v>2</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="145">
         <v>43042</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="142">
+      <c r="E4" s="139">
         <v>2</v>
       </c>
       <c r="F4" s="31" t="s">
@@ -5294,11 +5621,11 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="142"/>
-      <c r="B5" s="142"/>
-      <c r="C5" s="142"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="143"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="37" t="s">
         <v>54</v>
       </c>
@@ -5314,19 +5641,19 @@
       <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="141">
+      <c r="A6" s="142">
         <v>3</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="143">
         <v>42683</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="142">
+      <c r="E6" s="139">
         <v>2</v>
       </c>
       <c r="F6" s="31" t="s">
@@ -5344,11 +5671,11 @@
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="141"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="55" t="s">
         <v>67</v>
       </c>
@@ -5364,11 +5691,11 @@
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
       <c r="F8" s="53" t="s">
         <v>69</v>
       </c>
@@ -5384,11 +5711,11 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
       <c r="F9" s="53" t="s">
         <v>73</v>
       </c>
@@ -5404,11 +5731,11 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="141"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
       <c r="F10" s="31" t="s">
         <v>70</v>
       </c>
@@ -5426,19 +5753,19 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="141">
+      <c r="A11" s="142">
         <v>4</v>
       </c>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="141">
+      <c r="E11" s="142">
         <v>2</v>
       </c>
       <c r="F11" s="53" t="s">
@@ -5456,11 +5783,11 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="141"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
+      <c r="A12" s="142"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
       <c r="F12" s="55" t="s">
         <v>58</v>
       </c>
@@ -5476,11 +5803,11 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="70" t="s">
         <v>72</v>
       </c>
@@ -5490,23 +5817,23 @@
       <c r="H13" s="68">
         <v>42690</v>
       </c>
-      <c r="I13" s="133" t="s">
+      <c r="I13" s="131" t="s">
         <v>57</v>
       </c>
       <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="142">
+      <c r="A14" s="139">
         <v>5</v>
       </c>
-      <c r="B14" s="145">
+      <c r="B14" s="143">
         <v>42705</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142" t="s">
+      <c r="C14" s="139"/>
+      <c r="D14" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="142">
+      <c r="E14" s="139">
         <v>2</v>
       </c>
       <c r="F14" s="71" t="s">
@@ -5524,11 +5851,11 @@
       <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="71" t="s">
         <v>120</v>
       </c>
@@ -5544,11 +5871,11 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="143"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="71" t="s">
         <v>122</v>
       </c>
@@ -5564,13 +5891,13 @@
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
-      <c r="B17" s="147"/>
-      <c r="C17" s="143"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="140"/>
       <c r="D17" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="143"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="71" t="s">
         <v>123</v>
       </c>
@@ -5586,13 +5913,13 @@
       <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="143"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="142" t="s">
+      <c r="A18" s="140"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="143"/>
+      <c r="E18" s="140"/>
       <c r="F18" s="71" t="s">
         <v>125</v>
       </c>
@@ -5608,149 +5935,134 @@
       <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="143"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="141">
+      <c r="A20" s="142">
         <v>6</v>
       </c>
-      <c r="B20" s="144">
+      <c r="B20" s="145">
         <v>42773</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141" t="s">
+      <c r="C20" s="142"/>
+      <c r="D20" s="142" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="141">
+      <c r="E20" s="142">
         <v>2</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
       <c r="I20" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="129"/>
+      <c r="J20" s="127"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="129" t="s">
+      <c r="A21" s="142"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="127" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="129"/>
+      <c r="H21" s="127"/>
       <c r="I21" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="129"/>
+      <c r="J21" s="127"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="129" t="s">
+      <c r="A22" s="142"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="129" t="s">
+      <c r="G22" s="127" t="s">
         <v>178</v>
       </c>
-      <c r="H22" s="129"/>
+      <c r="H22" s="127"/>
       <c r="I22" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="129"/>
+      <c r="J22" s="127"/>
     </row>
     <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="141"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="129" t="s">
+      <c r="A23" s="142"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="129" t="s">
+      <c r="G23" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="127"/>
+      <c r="I23" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="127"/>
+    </row>
+    <row r="24" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A24" s="127">
+        <v>7</v>
+      </c>
+      <c r="B24" s="128">
+        <v>42809</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="127">
+        <v>2</v>
+      </c>
+      <c r="F24" s="129" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="127" t="s">
         <v>192</v>
-      </c>
-      <c r="H23" s="129"/>
-      <c r="I23" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="129"/>
-    </row>
-    <row r="24" spans="1:10" ht="375" x14ac:dyDescent="0.25">
-      <c r="A24" s="129">
-        <v>7</v>
-      </c>
-      <c r="B24" s="130">
-        <v>42809</v>
-      </c>
-      <c r="C24" s="129" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="129" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="129">
-        <v>2</v>
-      </c>
-      <c r="F24" s="131" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="129" t="s">
-        <v>192</v>
-      </c>
-      <c r="H24" s="129" t="s">
-        <v>193</v>
       </c>
       <c r="I24" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="129"/>
+      <c r="J24" s="127"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="127"/>
+      <c r="F25" s="125"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F26" s="127"/>
+      <c r="F26" s="125"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="127"/>
+      <c r="F27" s="125"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="E20:E23"/>
@@ -5767,6 +6079,21 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5954,20 +6281,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="154"/>
+      <c r="F1" s="152"/>
       <c r="G1" s="15" t="s">
         <v>35</v>
       </c>
@@ -5987,8 +6314,8 @@
       <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="149"/>
       <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
@@ -6452,7 +6779,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6462,17 +6789,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
+++ b/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Atas das Reuniões" sheetId="5" r:id="rId3"/>
     <sheet name="PROCESSO PADRÃO" sheetId="4" r:id="rId4"/>
     <sheet name="Controle do Projeto" sheetId="6" r:id="rId5"/>
-    <sheet name="ÁREAS PADRÃO" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="199">
   <si>
     <t>Categoria</t>
   </si>
@@ -642,9 +641,6 @@
   </si>
   <si>
     <t>Secretaria de Gestão de Serviços</t>
-  </si>
-  <si>
-    <t>Coordenadoria de InfraEstrutura Predial</t>
   </si>
   <si>
     <t>Coordenadoria de Segurança , Transporte e Apoio Administrativo</t>
@@ -704,6 +700,25 @@
   </si>
   <si>
     <t>Média de Coordenadoria de Segurança e Transportes e Apoio Administrativo</t>
+  </si>
+  <si>
+    <t>Ivis , Ruhan , Andre , Silmara, Iva , Helcio, Joao Paulo(Flavio), Helcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apresentado modelo A0;
+Apresentada a fase do Measure e suas ferramentas;
+Solicitado o volume da PADS para Ivanilda para criar comparitivo de custos atuais e futuros(Tempo e Dinheiro);
+Sugerida a possibilidade de levantamento de tempo gasto por servidor por PAD com base nos 37 pads coletados;
+</t>
+  </si>
+  <si>
+    <t>*Alterar imagens do Step 4 para ver as novas medias;
+*Alterar legendas  da planilha de custos para contemplar PADS;
+*Ajustar casas decimais dos graficos do Project Charter;
+*Verificar se e possivel obter o numero de servidores da CIP , ASSISEG para retirar o custo medio por servidor baseado na hora de cada tramite;</t>
+  </si>
+  <si>
+    <t>Ruhan, Ivis e Andre</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1635,6 +1650,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1660,27 +1684,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1702,8 +1726,8 @@
     <xf numFmtId="165" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1738,7 +1762,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1780,7 +1803,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1991,11 +2013,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1310694288"/>
-        <c:axId val="1310701360"/>
+        <c:axId val="384306744"/>
+        <c:axId val="384305568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1310694288"/>
+        <c:axId val="384306744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,7 +2037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1310701360"/>
+        <c:crossAx val="384305568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1310701360"/>
+        <c:axId val="384305568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1310694288"/>
+        <c:crossAx val="384306744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2246,11 +2268,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="1310694832"/>
-        <c:axId val="1310695376"/>
+        <c:axId val="384304392"/>
+        <c:axId val="384304000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1310694832"/>
+        <c:axId val="384304392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2260,7 +2282,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1310695376"/>
+        <c:crossAx val="384304000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2268,7 +2290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1310695376"/>
+        <c:axId val="384304000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2279,7 +2301,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1310694832"/>
+        <c:crossAx val="384304392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,11 +2531,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="1133839856"/>
-        <c:axId val="1133840400"/>
+        <c:axId val="384303216"/>
+        <c:axId val="384302824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1133839856"/>
+        <c:axId val="384303216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2545,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1133840400"/>
+        <c:crossAx val="384302824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2531,7 +2553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1133840400"/>
+        <c:axId val="384302824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,7 +2564,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1133839856"/>
+        <c:crossAx val="384303216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3021,16 +3043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3041,8 +3063,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7372351" y="962027"/>
-          <a:ext cx="1181100" cy="47624"/>
+          <a:off x="7375071" y="941616"/>
+          <a:ext cx="1224643" cy="59870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3178,6 +3200,92 @@
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8856</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>566058</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>162740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7383927" y="1020535"/>
+          <a:ext cx="1776402" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>389856</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>65315</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8984127" y="1183821"/>
+          <a:ext cx="285059" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -3507,12 +3615,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="95" t="s">
         <v>9</v>
       </c>
@@ -3521,7 +3629,7 @@
       </c>
       <c r="G1" s="97">
         <f ca="1">TODAY()</f>
-        <v>42850</v>
+        <v>42852</v>
       </c>
       <c r="H1" s="98" t="s">
         <v>11</v>
@@ -3568,7 +3676,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>111</v>
@@ -3607,7 +3715,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>127</v>
@@ -3637,7 +3745,7 @@
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>127</v>
@@ -3667,7 +3775,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>127</v>
@@ -3697,7 +3805,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>127</v>
@@ -3727,7 +3835,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>127</v>
@@ -3755,7 +3863,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>127</v>
@@ -3782,7 +3890,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>111</v>
@@ -3809,7 +3917,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>111</v>
@@ -3835,12 +3943,12 @@
       <c r="A13" s="116"/>
       <c r="B13" s="107"/>
       <c r="C13" s="117"/>
-      <c r="D13" s="134" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="135"/>
+      <c r="D13" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="108">
         <f>AVERAGE(H4:H12)</f>
         <v>169.66666666666666</v>
@@ -4029,7 +4137,7 @@
       <c r="F20" s="126">
         <v>42135</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="134">
         <v>42171</v>
       </c>
       <c r="H20" s="108">
@@ -4389,15 +4497,15 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="133" t="s">
+      <c r="A34" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="135"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="138"/>
       <c r="H34" s="108">
         <f>AVERAGE(H14:H33)</f>
         <v>173.05</v>
@@ -4622,7 +4730,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'ÁREAS PADRÃO'!$A$1:$A$3</xm:f>
+            <xm:f>#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B33</xm:sqref>
         </x14:dataValidation>
@@ -4637,7 +4745,7 @@
   <dimension ref="A2:J148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4704,7 +4812,7 @@
         <v>184</v>
       </c>
       <c r="E5" s="1">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4742,104 +4850,104 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="139" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="80" t="s">
@@ -5491,7 +5599,8 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5541,7 +5650,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="45" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139">
+      <c r="A2" s="143">
         <v>1</v>
       </c>
       <c r="B2" s="142" t="s">
@@ -5571,7 +5680,7 @@
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
+      <c r="A3" s="144"/>
       <c r="B3" s="142"/>
       <c r="C3" s="142"/>
       <c r="D3" s="142"/>
@@ -5603,7 +5712,7 @@
       <c r="D4" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="139">
+      <c r="E4" s="143">
         <v>2</v>
       </c>
       <c r="F4" s="31" t="s">
@@ -5621,11 +5730,11 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="140"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="37" t="s">
         <v>54</v>
       </c>
@@ -5644,16 +5753,16 @@
       <c r="A6" s="142">
         <v>3</v>
       </c>
-      <c r="B6" s="143">
+      <c r="B6" s="146">
         <v>42683</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="139">
+      <c r="E6" s="143">
         <v>2</v>
       </c>
       <c r="F6" s="31" t="s">
@@ -5672,10 +5781,10 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="142"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="55" t="s">
         <v>67</v>
       </c>
@@ -5692,10 +5801,10 @@
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="142"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
       <c r="F8" s="53" t="s">
         <v>69</v>
       </c>
@@ -5712,10 +5821,10 @@
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="142"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="53" t="s">
         <v>73</v>
       </c>
@@ -5732,10 +5841,10 @@
     </row>
     <row r="10" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="142"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="31" t="s">
         <v>70</v>
       </c>
@@ -5803,11 +5912,11 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
       <c r="F13" s="70" t="s">
         <v>72</v>
       </c>
@@ -5823,17 +5932,17 @@
       <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="139">
+      <c r="A14" s="143">
         <v>5</v>
       </c>
-      <c r="B14" s="143">
+      <c r="B14" s="146">
         <v>42705</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139" t="s">
+      <c r="C14" s="143"/>
+      <c r="D14" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="139">
+      <c r="E14" s="143">
         <v>2</v>
       </c>
       <c r="F14" s="71" t="s">
@@ -5851,11 +5960,11 @@
       <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
       <c r="F15" s="71" t="s">
         <v>120</v>
       </c>
@@ -5871,11 +5980,11 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="140"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="71" t="s">
         <v>122</v>
       </c>
@@ -5891,13 +6000,13 @@
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="140"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="144"/>
       <c r="D17" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="140"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="71" t="s">
         <v>123</v>
       </c>
@@ -5913,13 +6022,13 @@
       <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="139" t="s">
+      <c r="A18" s="144"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="140"/>
+      <c r="E18" s="144"/>
       <c r="F18" s="71" t="s">
         <v>125</v>
       </c>
@@ -5935,11 +6044,11 @@
       <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="142">
@@ -6011,7 +6120,7 @@
         <v>180</v>
       </c>
       <c r="G23" s="127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H23" s="127"/>
       <c r="I23" s="130" t="s">
@@ -6027,30 +6136,57 @@
         <v>42809</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" s="127">
         <v>2</v>
       </c>
       <c r="F24" s="129" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="G24" s="127" t="s">
+      <c r="H24" s="127" t="s">
         <v>191</v>
-      </c>
-      <c r="H24" s="127" t="s">
-        <v>192</v>
       </c>
       <c r="I24" s="58" t="s">
         <v>57</v>
       </c>
       <c r="J24" s="127"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="125"/>
+    <row r="25" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="132">
+        <v>8</v>
+      </c>
+      <c r="B25" s="133">
+        <v>42852</v>
+      </c>
+      <c r="C25" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="132">
+        <v>2</v>
+      </c>
+      <c r="F25" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="133">
+        <v>42863</v>
+      </c>
+      <c r="I25" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="132"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F26" s="125"/>
@@ -6063,6 +6199,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="E20:E23"/>
@@ -6079,21 +6230,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6104,7 +6240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6271,8 +6407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6281,20 +6417,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151" t="s">
+      <c r="D1" s="154"/>
+      <c r="E1" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="152"/>
+      <c r="F1" s="155"/>
       <c r="G1" s="15" t="s">
         <v>35</v>
       </c>
@@ -6314,8 +6450,8 @@
       <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="147"/>
-      <c r="B2" s="149"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
@@ -6451,10 +6587,18 @@
       <c r="B5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="C5" s="28">
+        <v>42794</v>
+      </c>
+      <c r="D5" s="29">
+        <v>42825</v>
+      </c>
+      <c r="E5" s="29">
+        <v>42737</v>
+      </c>
+      <c r="F5" s="30">
+        <v>42851</v>
+      </c>
       <c r="G5" s="26"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -6478,9 +6622,15 @@
       <c r="B6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="28">
+        <v>42857</v>
+      </c>
+      <c r="D6" s="29">
+        <v>42886</v>
+      </c>
+      <c r="E6" s="29">
+        <v>42852</v>
+      </c>
       <c r="F6" s="30"/>
       <c r="G6" s="26"/>
       <c r="H6" s="31"/>
@@ -6506,7 +6656,9 @@
         <v>42</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="D7" s="29">
+        <v>43008</v>
+      </c>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
       <c r="G7" s="26"/>
@@ -6533,7 +6685,9 @@
         <v>43</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="D8" s="29">
+        <v>43069</v>
+      </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="26"/>
@@ -6560,7 +6714,9 @@
         <v>44</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="D9" s="29">
+        <v>42794</v>
+      </c>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
       <c r="G9" s="26"/>
@@ -6772,37 +6928,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
+++ b/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Atas das Reuniões" sheetId="5" r:id="rId3"/>
     <sheet name="PROCESSO PADRÃO" sheetId="4" r:id="rId4"/>
     <sheet name="Controle do Projeto" sheetId="6" r:id="rId5"/>
+    <sheet name="ÁREAS PADRÃO" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -20,7 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="F16" authorId="0" shapeId="0">
@@ -33,7 +34,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t xml:space="preserve">Autor:
 </t>
         </r>
       </text>
@@ -45,7 +46,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="A4" authorId="0" shapeId="0">
@@ -58,7 +59,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Author:
+          <t xml:space="preserve">Autor:
 </t>
         </r>
       </text>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="196">
   <si>
     <t>Categoria</t>
   </si>
@@ -634,13 +635,13 @@
     <t>Média Geral</t>
   </si>
   <si>
-    <t>Média para Secretaria de Gestão de Serviços e Coordenadoria de Infraestrutura Predial</t>
-  </si>
-  <si>
     <t>ÁREA RESPONSÁVEL</t>
   </si>
   <si>
     <t>Secretaria de Gestão de Serviços</t>
+  </si>
+  <si>
+    <t>Coordenadoria de InfraEstrutura Predial</t>
   </si>
   <si>
     <t>Coordenadoria de Segurança , Transporte e Apoio Administrativo</t>
@@ -702,23 +703,7 @@
     <t>Média de Coordenadoria de Segurança e Transportes e Apoio Administrativo</t>
   </si>
   <si>
-    <t>Ivis , Ruhan , Andre , Silmara, Iva , Helcio, Joao Paulo(Flavio), Helcio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apresentado modelo A0;
-Apresentada a fase do Measure e suas ferramentas;
-Solicitado o volume da PADS para Ivanilda para criar comparitivo de custos atuais e futuros(Tempo e Dinheiro);
-Sugerida a possibilidade de levantamento de tempo gasto por servidor por PAD com base nos 37 pads coletados;
-</t>
-  </si>
-  <si>
-    <t>*Alterar imagens do Step 4 para ver as novas medias;
-*Alterar legendas  da planilha de custos para contemplar PADS;
-*Ajustar casas decimais dos graficos do Project Charter;
-*Verificar se e possivel obter o numero de servidores da CIP , ASSISEG para retirar o custo medio por servidor baseado na hora de cada tramite;</t>
-  </si>
-  <si>
-    <t>Ruhan, Ivis e Andre</t>
+    <t>Média para Coordenadoria de Infraestrutura Predial</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1650,12 +1635,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1725,9 +1704,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1750,7 +1726,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2013,11 +1989,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="384306744"/>
-        <c:axId val="384305568"/>
+        <c:axId val="113640952"/>
+        <c:axId val="113636640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384306744"/>
+        <c:axId val="113640952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,10 +2010,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384305568"/>
+        <c:crossAx val="113636640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2045,7 +2021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384305568"/>
+        <c:axId val="113636640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384306744"/>
+        <c:crossAx val="113640952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2076,7 +2052,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2237,7 +2213,7 @@
                   <c:v>Média para Coordenadoria de Segurança , Transporte e Apoio Administrativo</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Média para Secretaria de Gestão de Serviços e Coordenadoria de Infraestrutura Predial</c:v>
+                  <c:v>Média para Coordenadoria de Infraestrutura Predial</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2268,11 +2244,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="384304392"/>
-        <c:axId val="384304000"/>
+        <c:axId val="113640560"/>
+        <c:axId val="113642128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384304392"/>
+        <c:axId val="113640560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2258,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384304000"/>
+        <c:crossAx val="113642128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2290,7 +2266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384304000"/>
+        <c:axId val="113642128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,16 +2277,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384304392"/>
+        <c:crossAx val="113640560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2326,7 +2298,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2531,11 +2503,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="384303216"/>
-        <c:axId val="384302824"/>
+        <c:axId val="113636248"/>
+        <c:axId val="113639776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384303216"/>
+        <c:axId val="113636248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,7 +2517,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384302824"/>
+        <c:crossAx val="113639776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2553,7 +2525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384302824"/>
+        <c:axId val="113639776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,16 +2536,11 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384303216"/>
+        <c:crossAx val="113636248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2706,14 +2673,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>116542</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3043,16 +3010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38102</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>5443</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3063,8 +3030,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7375071" y="941616"/>
-          <a:ext cx="1224643" cy="59870"/>
+          <a:off x="7372351" y="962027"/>
+          <a:ext cx="1181100" cy="47624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3213,99 +3180,13 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>8856</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>117021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>566058</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>162740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7383927" y="1020535"/>
-          <a:ext cx="1776402" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>389856</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>89807</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>65315</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>135526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8984127" y="1183821"/>
-          <a:ext cx="285059" cy="45719"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3343,7 +3224,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3415,7 +3296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3591,9 +3472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,12 +3496,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
       <c r="E1" s="95" t="s">
         <v>9</v>
       </c>
@@ -3629,7 +3510,7 @@
       </c>
       <c r="G1" s="97">
         <f ca="1">TODAY()</f>
-        <v>42852</v>
+        <v>42851</v>
       </c>
       <c r="H1" s="98" t="s">
         <v>11</v>
@@ -3641,7 +3522,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="100" t="s">
         <v>112</v>
@@ -3943,12 +3824,12 @@
       <c r="A13" s="116"/>
       <c r="B13" s="107"/>
       <c r="C13" s="117"/>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="138"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="136"/>
       <c r="H13" s="108">
         <f>AVERAGE(H4:H12)</f>
         <v>169.66666666666666</v>
@@ -3959,7 +3840,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>111</v>
@@ -3988,7 +3869,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="107" t="s">
         <v>111</v>
@@ -4015,7 +3896,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>111</v>
@@ -4042,7 +3923,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>111</v>
@@ -4069,7 +3950,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="107" t="s">
         <v>111</v>
@@ -4096,7 +3977,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="107" t="s">
         <v>111</v>
@@ -4123,7 +4004,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>127</v>
@@ -4137,7 +4018,7 @@
       <c r="F20" s="126">
         <v>42135</v>
       </c>
-      <c r="G20" s="134">
+      <c r="G20" s="132">
         <v>42171</v>
       </c>
       <c r="H20" s="108">
@@ -4150,7 +4031,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>111</v>
@@ -4177,7 +4058,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>127</v>
@@ -4204,7 +4085,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>127</v>
@@ -4231,7 +4112,7 @@
         <v>137</v>
       </c>
       <c r="B24" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="107" t="s">
         <v>127</v>
@@ -4258,7 +4139,7 @@
         <v>140</v>
       </c>
       <c r="B25" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>141</v>
@@ -4285,7 +4166,7 @@
         <v>144</v>
       </c>
       <c r="B26" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="107" t="s">
         <v>141</v>
@@ -4312,7 +4193,7 @@
         <v>147</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" s="107" t="s">
         <v>111</v>
@@ -4339,7 +4220,7 @@
         <v>152</v>
       </c>
       <c r="B28" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="107" t="s">
         <v>141</v>
@@ -4366,7 +4247,7 @@
         <v>153</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="107" t="s">
         <v>141</v>
@@ -4393,7 +4274,7 @@
         <v>155</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C30" s="107" t="s">
         <v>141</v>
@@ -4420,7 +4301,7 @@
         <v>158</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="107" t="s">
         <v>141</v>
@@ -4447,7 +4328,7 @@
         <v>161</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>141</v>
@@ -4474,7 +4355,7 @@
         <v>106</v>
       </c>
       <c r="B33" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="107" t="s">
         <v>111</v>
@@ -4497,15 +4378,15 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="136" t="s">
+      <c r="A34" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="137"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="138"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="108">
         <f>AVERAGE(H14:H33)</f>
         <v>173.05</v>
@@ -4730,7 +4611,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>'ÁREAS PADRÃO'!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B33</xm:sqref>
         </x14:dataValidation>
@@ -4744,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4794,7 +4675,7 @@
         <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E4" s="1">
         <v>173</v>
@@ -4812,7 +4693,7 @@
         <v>184</v>
       </c>
       <c r="E5" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4850,104 +4731,104 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="80" t="s">
@@ -5599,8 +5480,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5650,19 +5530,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="45" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143">
+      <c r="A2" s="141">
         <v>1</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="142">
+      <c r="E2" s="140">
         <v>2</v>
       </c>
       <c r="F2" s="31" t="s">
@@ -5680,11 +5560,11 @@
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="144"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="31" t="s">
         <v>60</v>
       </c>
@@ -5700,19 +5580,19 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="142">
+      <c r="A4" s="140">
         <v>2</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="143">
         <v>43042</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="143">
+      <c r="E4" s="141">
         <v>2</v>
       </c>
       <c r="F4" s="31" t="s">
@@ -5730,11 +5610,11 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="143"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="144"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="37" t="s">
         <v>54</v>
       </c>
@@ -5750,19 +5630,19 @@
       <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="142">
+      <c r="A6" s="140">
         <v>3</v>
       </c>
-      <c r="B6" s="146">
+      <c r="B6" s="144">
         <v>42683</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="143">
+      <c r="E6" s="141">
         <v>2</v>
       </c>
       <c r="F6" s="31" t="s">
@@ -5780,11 +5660,11 @@
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="142"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="55" t="s">
         <v>67</v>
       </c>
@@ -5800,11 +5680,11 @@
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="142"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="53" t="s">
         <v>69</v>
       </c>
@@ -5820,11 +5700,11 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="142"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="53" t="s">
         <v>73</v>
       </c>
@@ -5840,11 +5720,11 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="142"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="31" t="s">
         <v>70</v>
       </c>
@@ -5862,19 +5742,19 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="142">
+      <c r="A11" s="140">
         <v>4</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="142">
+      <c r="E11" s="140">
         <v>2</v>
       </c>
       <c r="F11" s="53" t="s">
@@ -5892,11 +5772,11 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="142"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="55" t="s">
         <v>58</v>
       </c>
@@ -5912,11 +5792,11 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="143"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="70" t="s">
         <v>72</v>
       </c>
@@ -5932,17 +5812,17 @@
       <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="143">
+      <c r="A14" s="141">
         <v>5</v>
       </c>
-      <c r="B14" s="146">
+      <c r="B14" s="144">
         <v>42705</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143" t="s">
+      <c r="C14" s="141"/>
+      <c r="D14" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="143">
+      <c r="E14" s="141">
         <v>2</v>
       </c>
       <c r="F14" s="71" t="s">
@@ -5960,11 +5840,11 @@
       <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
       <c r="F15" s="71" t="s">
         <v>120</v>
       </c>
@@ -5980,11 +5860,11 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="144"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="142"/>
       <c r="F16" s="71" t="s">
         <v>122</v>
       </c>
@@ -6000,13 +5880,13 @@
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="144"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="144"/>
+      <c r="E17" s="142"/>
       <c r="F17" s="71" t="s">
         <v>123</v>
       </c>
@@ -6022,13 +5902,13 @@
       <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="143" t="s">
+      <c r="A18" s="142"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="144"/>
+      <c r="E18" s="142"/>
       <c r="F18" s="71" t="s">
         <v>125</v>
       </c>
@@ -6044,24 +5924,24 @@
       <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="142">
+      <c r="A20" s="140">
         <v>6</v>
       </c>
-      <c r="B20" s="145">
+      <c r="B20" s="143">
         <v>42773</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142" t="s">
+      <c r="C20" s="140"/>
+      <c r="D20" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="142">
+      <c r="E20" s="140">
         <v>2</v>
       </c>
       <c r="F20" s="127" t="s">
@@ -6075,11 +5955,11 @@
       <c r="J20" s="127"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="142"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
       <c r="F21" s="127" t="s">
         <v>175</v>
       </c>
@@ -6093,11 +5973,11 @@
       <c r="J21" s="127"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="142"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
       <c r="F22" s="127" t="s">
         <v>177</v>
       </c>
@@ -6111,11 +5991,11 @@
       <c r="J22" s="127"/>
     </row>
     <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="142"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
       <c r="F23" s="127" t="s">
         <v>180</v>
       </c>
@@ -6158,35 +6038,8 @@
       </c>
       <c r="J24" s="127"/>
     </row>
-    <row r="25" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A25" s="132">
-        <v>8</v>
-      </c>
-      <c r="B25" s="133">
-        <v>42852</v>
-      </c>
-      <c r="C25" s="132" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="132" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="132">
-        <v>2</v>
-      </c>
-      <c r="F25" s="156" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="132" t="s">
-        <v>198</v>
-      </c>
-      <c r="H25" s="133">
-        <v>42863</v>
-      </c>
-      <c r="I25" s="130" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="132"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="125"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F26" s="125"/>
@@ -6240,7 +6093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6407,8 +6260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6417,20 +6270,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="152"/>
+      <c r="E1" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="155"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="15" t="s">
         <v>35</v>
       </c>
@@ -6450,8 +6303,8 @@
       <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150"/>
-      <c r="B2" s="152"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
@@ -6587,18 +6440,10 @@
       <c r="B5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="28">
-        <v>42794</v>
-      </c>
-      <c r="D5" s="29">
-        <v>42825</v>
-      </c>
-      <c r="E5" s="29">
-        <v>42737</v>
-      </c>
-      <c r="F5" s="30">
-        <v>42851</v>
-      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="26"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -6622,15 +6467,9 @@
       <c r="B6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="28">
-        <v>42857</v>
-      </c>
-      <c r="D6" s="29">
-        <v>42886</v>
-      </c>
-      <c r="E6" s="29">
-        <v>42852</v>
-      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="30"/>
       <c r="G6" s="26"/>
       <c r="H6" s="31"/>
@@ -6656,9 +6495,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="D7" s="29">
-        <v>43008</v>
-      </c>
+      <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
       <c r="G7" s="26"/>
@@ -6685,9 +6522,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="29">
-        <v>43069</v>
-      </c>
+      <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
       <c r="G8" s="26"/>
@@ -6714,9 +6549,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="29">
-        <v>42794</v>
-      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
       <c r="G9" s="26"/>
@@ -6928,4 +6761,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
+++ b/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
@@ -32,7 +32,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Autor:
 </t>
@@ -632,9 +632,6 @@
     <t>Média para Coordenadoria de Segurança , Transporte e Apoio Administrativo</t>
   </si>
   <si>
-    <t>Média Geral</t>
-  </si>
-  <si>
     <t>ÁREA RESPONSÁVEL</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   <si>
     <t>Média para Coordenadoria de Infraestrutura Predial</t>
   </si>
+  <si>
+    <t>Média Geral(2 Coordenadorias)</t>
+  </si>
 </sst>
 </file>
 
@@ -715,7 +715,7 @@
     <numFmt numFmtId="165" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,13 +792,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1663,25 +1656,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1989,11 +1982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113640952"/>
-        <c:axId val="113636640"/>
+        <c:axId val="339882720"/>
+        <c:axId val="339877232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113640952"/>
+        <c:axId val="339882720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2006,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113636640"/>
+        <c:crossAx val="339877232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2021,7 +2014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113636640"/>
+        <c:axId val="339877232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113640952"/>
+        <c:crossAx val="339882720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2078,7 +2071,14 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> DE LEAD TIME EM DIAS POR  SECRETARIA/COORDENADORIA </a:t>
+              <a:t> DE LEAD TIME EM DIAS POR  SECRETARIA/COORDENADORIA</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>37 PADS COLETADOS</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2206,29 +2206,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Graficos!$D$3:$D$4</c:f>
+              <c:f>Graficos!$D$3:$D$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Média para Coordenadoria de Segurança , Transporte e Apoio Administrativo</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Média para Coordenadoria de Infraestrutura Predial</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Média Geral(2 Coordenadorias)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficos!$E$3:$E$4</c:f>
+              <c:f>Graficos!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,11 +2250,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="113640560"/>
-        <c:axId val="113642128"/>
+        <c:axId val="339879192"/>
+        <c:axId val="339880368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113640560"/>
+        <c:axId val="339879192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,7 +2264,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113642128"/>
+        <c:crossAx val="339880368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2266,7 +2272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113642128"/>
+        <c:axId val="339880368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2283,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113640560"/>
+        <c:crossAx val="339879192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2325,6 +2331,13 @@
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
               <a:t> DE LEAD TIME EM DIAS POR  FORMA DE CONTRATACAO</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>37 PADS COLETADOS</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2503,11 +2516,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="113636248"/>
-        <c:axId val="113639776"/>
+        <c:axId val="339877624"/>
+        <c:axId val="339884288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113636248"/>
+        <c:axId val="339877624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,7 +2530,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113639776"/>
+        <c:crossAx val="339884288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2525,7 +2538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113639776"/>
+        <c:axId val="339884288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2549,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113636248"/>
+        <c:crossAx val="339877624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3510,7 +3523,7 @@
       </c>
       <c r="G1" s="97">
         <f ca="1">TODAY()</f>
-        <v>42851</v>
+        <v>42867</v>
       </c>
       <c r="H1" s="98" t="s">
         <v>11</v>
@@ -3522,7 +3535,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="100" t="s">
         <v>112</v>
@@ -3557,7 +3570,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>111</v>
@@ -3596,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>127</v>
@@ -3626,7 +3639,7 @@
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>127</v>
@@ -3656,7 +3669,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>127</v>
@@ -3686,7 +3699,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>127</v>
@@ -3716,7 +3729,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>127</v>
@@ -3744,7 +3757,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>127</v>
@@ -3771,7 +3784,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>111</v>
@@ -3798,7 +3811,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>111</v>
@@ -3825,7 +3838,7 @@
       <c r="B13" s="107"/>
       <c r="C13" s="117"/>
       <c r="D13" s="135" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="135"/>
       <c r="F13" s="135"/>
@@ -3840,7 +3853,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>111</v>
@@ -3869,7 +3882,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="107" t="s">
         <v>111</v>
@@ -3896,7 +3909,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>111</v>
@@ -3923,7 +3936,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>111</v>
@@ -3950,7 +3963,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="107" t="s">
         <v>111</v>
@@ -3977,7 +3990,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="107" t="s">
         <v>111</v>
@@ -4004,7 +4017,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>127</v>
@@ -4031,7 +4044,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>111</v>
@@ -4058,7 +4071,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>127</v>
@@ -4085,7 +4098,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>127</v>
@@ -4112,7 +4125,7 @@
         <v>137</v>
       </c>
       <c r="B24" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="107" t="s">
         <v>127</v>
@@ -4139,7 +4152,7 @@
         <v>140</v>
       </c>
       <c r="B25" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>141</v>
@@ -4166,7 +4179,7 @@
         <v>144</v>
       </c>
       <c r="B26" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C26" s="107" t="s">
         <v>141</v>
@@ -4193,7 +4206,7 @@
         <v>147</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" s="107" t="s">
         <v>111</v>
@@ -4220,7 +4233,7 @@
         <v>152</v>
       </c>
       <c r="B28" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C28" s="107" t="s">
         <v>141</v>
@@ -4247,7 +4260,7 @@
         <v>153</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="107" t="s">
         <v>141</v>
@@ -4274,7 +4287,7 @@
         <v>155</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C30" s="107" t="s">
         <v>141</v>
@@ -4301,7 +4314,7 @@
         <v>158</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C31" s="107" t="s">
         <v>141</v>
@@ -4328,7 +4341,7 @@
         <v>161</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>141</v>
@@ -4355,7 +4368,7 @@
         <v>106</v>
       </c>
       <c r="B33" s="107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C33" s="107" t="s">
         <v>111</v>
@@ -4625,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4675,7 +4688,7 @@
         <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4" s="1">
         <v>173</v>
@@ -4690,10 +4703,11 @@
         <v>106.6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1">
-        <v>169</v>
+        <f>AVERAGE(E3:E4)</f>
+        <v>171.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5530,19 +5544,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="45" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141">
+      <c r="A2" s="140">
         <v>1</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="140">
+      <c r="E2" s="143">
         <v>2</v>
       </c>
       <c r="F2" s="31" t="s">
@@ -5560,11 +5574,11 @@
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="142"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
       <c r="F3" s="31" t="s">
         <v>60</v>
       </c>
@@ -5580,19 +5594,19 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140">
+      <c r="A4" s="143">
         <v>2</v>
       </c>
-      <c r="B4" s="143">
+      <c r="B4" s="146">
         <v>43042</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="141">
+      <c r="E4" s="140">
         <v>2</v>
       </c>
       <c r="F4" s="31" t="s">
@@ -5610,11 +5624,11 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="141"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
       <c r="F5" s="37" t="s">
         <v>54</v>
       </c>
@@ -5630,19 +5644,19 @@
       <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="140">
+      <c r="A6" s="143">
         <v>3</v>
       </c>
       <c r="B6" s="144">
         <v>42683</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="141">
+      <c r="E6" s="140">
         <v>2</v>
       </c>
       <c r="F6" s="31" t="s">
@@ -5660,11 +5674,11 @@
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
       <c r="F7" s="55" t="s">
         <v>67</v>
       </c>
@@ -5680,11 +5694,11 @@
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
       <c r="F8" s="53" t="s">
         <v>69</v>
       </c>
@@ -5700,11 +5714,11 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
       <c r="F9" s="53" t="s">
         <v>73</v>
       </c>
@@ -5720,11 +5734,11 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
       <c r="F10" s="31" t="s">
         <v>70</v>
       </c>
@@ -5742,19 +5756,19 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="140">
+      <c r="A11" s="143">
         <v>4</v>
       </c>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="143">
         <v>2</v>
       </c>
       <c r="F11" s="53" t="s">
@@ -5772,11 +5786,11 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
       <c r="F12" s="55" t="s">
         <v>58</v>
       </c>
@@ -5792,11 +5806,11 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="70" t="s">
         <v>72</v>
       </c>
@@ -5812,17 +5826,17 @@
       <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="141">
+      <c r="A14" s="140">
         <v>5</v>
       </c>
       <c r="B14" s="144">
         <v>42705</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141" t="s">
+      <c r="C14" s="140"/>
+      <c r="D14" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="141">
+      <c r="E14" s="140">
         <v>2</v>
       </c>
       <c r="F14" s="71" t="s">
@@ -5840,11 +5854,11 @@
       <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="71" t="s">
         <v>120</v>
       </c>
@@ -5860,11 +5874,11 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="142"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="142"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="141"/>
       <c r="F16" s="71" t="s">
         <v>122</v>
       </c>
@@ -5880,13 +5894,13 @@
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="142"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="141"/>
       <c r="D17" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="142"/>
+      <c r="E17" s="141"/>
       <c r="F17" s="71" t="s">
         <v>123</v>
       </c>
@@ -5902,13 +5916,13 @@
       <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="142"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="141" t="s">
+      <c r="A18" s="141"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="142"/>
+      <c r="E18" s="141"/>
       <c r="F18" s="71" t="s">
         <v>125</v>
       </c>
@@ -5924,24 +5938,24 @@
       <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="142"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="140">
+      <c r="A20" s="143">
         <v>6</v>
       </c>
-      <c r="B20" s="143">
+      <c r="B20" s="146">
         <v>42773</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140" t="s">
+      <c r="C20" s="143"/>
+      <c r="D20" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="140">
+      <c r="E20" s="143">
         <v>2</v>
       </c>
       <c r="F20" s="127" t="s">
@@ -5955,11 +5969,11 @@
       <c r="J20" s="127"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="140"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
       <c r="F21" s="127" t="s">
         <v>175</v>
       </c>
@@ -5973,11 +5987,11 @@
       <c r="J21" s="127"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="140"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
+      <c r="A22" s="143"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
       <c r="F22" s="127" t="s">
         <v>177</v>
       </c>
@@ -5991,16 +6005,16 @@
       <c r="J22" s="127"/>
     </row>
     <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="140"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="127" t="s">
         <v>180</v>
       </c>
       <c r="G23" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H23" s="127"/>
       <c r="I23" s="130" t="s">
@@ -6016,22 +6030,22 @@
         <v>42809</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="127">
         <v>2</v>
       </c>
       <c r="F24" s="129" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="G24" s="127" t="s">
+      <c r="H24" s="127" t="s">
         <v>190</v>
-      </c>
-      <c r="H24" s="127" t="s">
-        <v>191</v>
       </c>
       <c r="I24" s="58" t="s">
         <v>57</v>
@@ -6052,21 +6066,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="E20:E23"/>
@@ -6083,6 +6082,21 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6778,17 +6792,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
+++ b/Banco de Dados de PADS/TRE_Dados_MapaRaciocinio.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Historicos x Categoria" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Controle do Projeto" sheetId="6" r:id="rId5"/>
     <sheet name="ÁREAS PADRÃO" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="219">
   <si>
     <t>Categoria</t>
   </si>
@@ -621,9 +621,6 @@
   </si>
   <si>
     <t>A3 - Contendo , objetivo do Projeto , histórico do projeto, lead time do processo inteiro(Pareto)</t>
-  </si>
-  <si>
-    <t>MÉDIA SECRETARIA DE GESTÃO DE SERVIÇOS</t>
   </si>
   <si>
     <t>ÁREA</t>
@@ -705,11 +702,83 @@
   <si>
     <t>Média Geral(2 Coordenadorias)</t>
   </si>
+  <si>
+    <t>014337/2016</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO SERVIÇO DE MANUTENÇÃO PREDIAL  JARDINAGEM - CAPITAL/INTERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratação para serviços de jardinagem para os fóruns de Campina da Lagoa, Campo Mourão, Jacarezinho, Londrina, Santa Mariana, Cambará, Paranaguá e Cambé </t>
+  </si>
+  <si>
+    <t>011188/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratação de empresa especializada nos serviços de elaboração e fornecimento de PROJETOS para a construção da Central de Urnas Eletrônica. </t>
+  </si>
+  <si>
+    <t>011391/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratação de serviços topográficos - terreno localizado na Rua João Paroli, 097 </t>
+  </si>
+  <si>
+    <t>014040/2016</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA PARA AMPLIAÇÃO E REFORMA DO FÓRUM ELEITORAL DE SÃO JOSÉ DOS PINHAIS</t>
+  </si>
+  <si>
+    <t>011231/2016</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para realizar assessoria para projeto de eficiência energética de iluminação dos imóveis do prédio sede do TRE/PR e Fórum Eleitoral de Curitiba. Empresa: Eletron Energia EIRELI-ME</t>
+  </si>
+  <si>
+    <t>011875/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratação de serviços de reforma para os Fóruns Eleitorais de Arapongas, Castro, Formosa do Oeste e Ibiporã </t>
+  </si>
+  <si>
+    <t>007141/2016</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA PARA FORNECIMENTO E INSTALAÇÃO DE ELEVADOR NO PRÉDIO SEDE DESTE TRIBUNAL</t>
+  </si>
+  <si>
+    <t>013288/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012682/2016 </t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada para prestação de serviços de levantamento topográfico/planialtimétrico nos terrenos localizados na Rua João Parolin, 055 e 224</t>
+  </si>
+  <si>
+    <t>PARTE FINANCEIRA - A. A. Bello Filho - ME - CNPJ 11.111383/0001-91 - Contratação de serviços de manutenção integrada para o interior do Estado - projeto piloto (PAD principal n. 8209/2015) - Contrato n. 82/16</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO SERVIÇO DE ENGENHARIA - OBRAS  ELABORAÇÃO DE PROJETOS</t>
+  </si>
+  <si>
+    <t>CONTRATAÇÃO SERVIÇO DE ENGENHARIA - OBRAS  CONSTRUÇÃO</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO BENS PERMANENTES  EQUIPAMENTOS EM GERAL</t>
+  </si>
+  <si>
+    <t>PAGAMENTOS E DEVOLUÇÕES NOTAS FISCAIS A FORNECEDORES</t>
+  </si>
+  <si>
+    <t>Média Secretaria de Gestão de Serviços</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yy"/>
@@ -1631,14 +1700,14 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1656,25 +1725,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,7 +1786,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1972,6 +2041,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0C0-4E63-9775-F9234FC6E105}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2003,7 +2077,7 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="339877232"/>
@@ -2043,7 +2117,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2084,7 +2158,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2154,6 +2227,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EFBC-4168-B94C-7B952CC08D53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2180,6 +2258,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EFBC-4168-B94C-7B952CC08D53}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2199,7 +2282,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2239,6 +2321,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EFBC-4168-B94C-7B952CC08D53}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2302,7 +2389,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2420,6 +2507,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9E3C-490D-A648-96F54DFD9C19}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2446,6 +2538,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9E3C-490D-A648-96F54DFD9C19}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2465,7 +2562,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2505,6 +2601,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E3C-490D-A648-96F54DFD9C19}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2583,7 +2684,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagem 10"/>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2638,7 +2745,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2668,7 +2781,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2698,7 +2817,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 2"/>
+        <xdr:cNvPr id="6" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2735,7 +2860,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2778,7 +2909,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2821,7 +2958,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2864,7 +3007,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2907,7 +3056,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2950,7 +3105,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2993,7 +3154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3036,7 +3203,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3079,7 +3252,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3122,7 +3301,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3165,7 +3350,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3199,7 +3390,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3237,7 +3428,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3272,6 +3463,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3307,9 +3515,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3483,11 +3708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,12 +3733,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
       <c r="E1" s="95" t="s">
         <v>9</v>
       </c>
@@ -3523,7 +3747,7 @@
       </c>
       <c r="G1" s="97">
         <f ca="1">TODAY()</f>
-        <v>42867</v>
+        <v>42880</v>
       </c>
       <c r="H1" s="98" t="s">
         <v>11</v>
@@ -3535,7 +3759,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="100" t="s">
         <v>112</v>
@@ -3570,7 +3794,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="107" t="s">
         <v>111</v>
@@ -3592,16 +3816,16 @@
         <v>149</v>
       </c>
       <c r="I4" s="109"/>
-      <c r="K4" s="110">
-        <f>AVERAGE(H13,H34)</f>
-        <v>171.35833333333335</v>
+      <c r="K4" s="110" t="e">
+        <f>AVERAGE(H13,#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L4" s="111">
         <v>0.15</v>
       </c>
-      <c r="M4" s="96">
+      <c r="M4" s="96" t="e">
         <f>K4-(K4*L4)</f>
-        <v>145.65458333333333</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3609,7 +3833,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>127</v>
@@ -3639,7 +3863,7 @@
         <v>129</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>127</v>
@@ -3669,7 +3893,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="107" t="s">
         <v>127</v>
@@ -3699,7 +3923,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="107" t="s">
         <v>127</v>
@@ -3729,7 +3953,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="107" t="s">
         <v>127</v>
@@ -3757,7 +3981,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="107" t="s">
         <v>127</v>
@@ -3784,7 +4008,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>111</v>
@@ -3811,7 +4035,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>111</v>
@@ -3838,7 +4062,7 @@
       <c r="B13" s="107"/>
       <c r="C13" s="117"/>
       <c r="D13" s="135" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="135"/>
       <c r="F13" s="135"/>
@@ -3853,7 +4077,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>111</v>
@@ -3882,7 +4106,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="107" t="s">
         <v>111</v>
@@ -3900,7 +4124,7 @@
         <v>42657</v>
       </c>
       <c r="H15" s="108">
-        <f t="shared" ref="H15:H33" si="1">DAYS360(F15,G15)</f>
+        <f t="shared" ref="H15:H37" si="1">DAYS360(F15,G15)</f>
         <v>277</v>
       </c>
     </row>
@@ -3909,7 +4133,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>111</v>
@@ -3936,7 +4160,7 @@
         <v>92</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>111</v>
@@ -3963,7 +4187,7 @@
         <v>94</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="107" t="s">
         <v>111</v>
@@ -3990,7 +4214,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="107" t="s">
         <v>111</v>
@@ -4017,7 +4241,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>127</v>
@@ -4044,7 +4268,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>111</v>
@@ -4071,7 +4295,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="107" t="s">
         <v>127</v>
@@ -4098,7 +4322,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>127</v>
@@ -4125,7 +4349,7 @@
         <v>137</v>
       </c>
       <c r="B24" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="107" t="s">
         <v>127</v>
@@ -4152,7 +4376,7 @@
         <v>140</v>
       </c>
       <c r="B25" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="107" t="s">
         <v>141</v>
@@ -4179,7 +4403,7 @@
         <v>144</v>
       </c>
       <c r="B26" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C26" s="107" t="s">
         <v>141</v>
@@ -4206,7 +4430,7 @@
         <v>147</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" s="107" t="s">
         <v>111</v>
@@ -4233,7 +4457,7 @@
         <v>152</v>
       </c>
       <c r="B28" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" s="107" t="s">
         <v>141</v>
@@ -4260,7 +4484,7 @@
         <v>153</v>
       </c>
       <c r="B29" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" s="107" t="s">
         <v>141</v>
@@ -4287,7 +4511,7 @@
         <v>155</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" s="107" t="s">
         <v>141</v>
@@ -4314,7 +4538,7 @@
         <v>158</v>
       </c>
       <c r="B31" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" s="107" t="s">
         <v>141</v>
@@ -4341,7 +4565,7 @@
         <v>161</v>
       </c>
       <c r="B32" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" s="107" t="s">
         <v>141</v>
@@ -4368,7 +4592,7 @@
         <v>106</v>
       </c>
       <c r="B33" s="107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="107" t="s">
         <v>111</v>
@@ -4390,118 +4614,271 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="134" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="136"/>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="126">
+        <v>42669</v>
+      </c>
+      <c r="G34" s="126">
+        <v>42817</v>
+      </c>
       <c r="H34" s="108">
-        <f>AVERAGE(H14:H33)</f>
-        <v>173.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="108"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="96"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="96"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="96"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="I34" s="108"/>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" s="126">
+        <v>42606</v>
+      </c>
+      <c r="G35" s="126">
+        <v>42633</v>
+      </c>
+      <c r="H35" s="108">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="126">
+        <v>42612</v>
+      </c>
+      <c r="G36" s="126">
+        <v>42626</v>
+      </c>
+      <c r="H36" s="108">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" s="126">
+        <v>42663</v>
+      </c>
+      <c r="G37" s="126">
+        <v>42725</v>
+      </c>
+      <c r="H37" s="108">
+        <f>DAYS360(F37,G37)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="126">
+        <v>42613</v>
+      </c>
+      <c r="G38" s="126">
+        <v>42641</v>
+      </c>
+      <c r="H38" s="108">
+        <f>DAYS360(F38,G38)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="126">
+        <v>42627</v>
+      </c>
+      <c r="G39" s="126">
+        <v>42685</v>
+      </c>
+      <c r="H39" s="108">
+        <f>DAYS360(F39,G39)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="107" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="126">
+        <v>42555</v>
+      </c>
+      <c r="G40" s="126">
+        <v>42822</v>
+      </c>
+      <c r="H40" s="108">
+        <f>DAYS360(F40,G40)</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="126">
+        <v>42635</v>
+      </c>
+      <c r="G41" s="126">
+        <v>42674</v>
+      </c>
+      <c r="H41" s="108">
+        <f>DAYS360(F41,G41)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" s="126">
+        <v>42650</v>
+      </c>
+      <c r="G42" s="126">
+        <v>42725</v>
+      </c>
+      <c r="H42" s="108">
+        <f>DAYS360(F42,G42)</f>
+        <v>74</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
       <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
+      <c r="C43" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="108">
+        <f>AVERAGE(H14:H42)</f>
+        <v>143.79310344827587</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="96"/>
       <c r="B44" s="96"/>
       <c r="C44" s="96"/>
       <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
+      <c r="E44" s="98"/>
       <c r="F44" s="96"/>
       <c r="G44" s="96"/>
       <c r="H44" s="96"/>
@@ -4511,7 +4888,7 @@
       <c r="B45" s="96"/>
       <c r="C45" s="96"/>
       <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
+      <c r="E45" s="98"/>
       <c r="F45" s="96"/>
       <c r="G45" s="96"/>
       <c r="H45" s="96"/>
@@ -4521,7 +4898,7 @@
       <c r="B46" s="96"/>
       <c r="C46" s="96"/>
       <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
+      <c r="E46" s="98"/>
       <c r="F46" s="96"/>
       <c r="G46" s="96"/>
       <c r="H46" s="96"/>
@@ -4531,7 +4908,7 @@
       <c r="B47" s="96"/>
       <c r="C47" s="96"/>
       <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
+      <c r="E47" s="98"/>
       <c r="F47" s="96"/>
       <c r="G47" s="96"/>
       <c r="H47" s="96"/>
@@ -4541,7 +4918,7 @@
       <c r="B48" s="96"/>
       <c r="C48" s="96"/>
       <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
+      <c r="E48" s="98"/>
       <c r="F48" s="96"/>
       <c r="G48" s="96"/>
       <c r="H48" s="96"/>
@@ -4551,70 +4928,60 @@
       <c r="B49" s="96"/>
       <c r="C49" s="96"/>
       <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
+      <c r="E49" s="98"/>
       <c r="F49" s="96"/>
       <c r="G49" s="96"/>
       <c r="H49" s="96"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L57" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="99">
+        <v>1</v>
+      </c>
+      <c r="N57" s="99">
+        <f>AVERAGEIF(L57:L61,L57,M57:M61)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L58" s="99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M58" s="99">
-        <v>1</v>
-      </c>
-      <c r="N58" s="99">
-        <f>AVERAGEIF(L58:L62,L58,M58:M62)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L59" s="99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59" s="99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L60" s="99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M60" s="99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L61" s="99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M61" s="99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L62" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="M62" s="99">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A34:G34"/>
     <mergeCell ref="D13:G13"/>
+    <mergeCell ref="C43:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4638,8 +5005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4659,7 +5026,7 @@
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
@@ -4673,7 +5040,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="1">
         <v>170</v>
@@ -4688,7 +5055,7 @@
         <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="1">
         <v>173</v>
@@ -4703,7 +5070,7 @@
         <v>106.6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1">
         <f>AVERAGE(E3:E4)</f>
@@ -5544,19 +5911,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="45" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140">
+      <c r="A2" s="141">
         <v>1</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="143">
+      <c r="E2" s="140">
         <v>2</v>
       </c>
       <c r="F2" s="31" t="s">
@@ -5574,11 +5941,11 @@
       <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="141"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="31" t="s">
         <v>60</v>
       </c>
@@ -5594,19 +5961,19 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143">
+      <c r="A4" s="140">
         <v>2</v>
       </c>
-      <c r="B4" s="146">
+      <c r="B4" s="143">
         <v>43042</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="140">
+      <c r="E4" s="141">
         <v>2</v>
       </c>
       <c r="F4" s="31" t="s">
@@ -5624,11 +5991,11 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="37" t="s">
         <v>54</v>
       </c>
@@ -5644,19 +6011,19 @@
       <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="143">
+      <c r="A6" s="140">
         <v>3</v>
       </c>
       <c r="B6" s="144">
         <v>42683</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="140">
+      <c r="E6" s="141">
         <v>2</v>
       </c>
       <c r="F6" s="31" t="s">
@@ -5674,11 +6041,11 @@
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="55" t="s">
         <v>67</v>
       </c>
@@ -5694,11 +6061,11 @@
       <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
       <c r="F8" s="53" t="s">
         <v>69</v>
       </c>
@@ -5714,11 +6081,11 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="53" t="s">
         <v>73</v>
       </c>
@@ -5734,11 +6101,11 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="143"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="31" t="s">
         <v>70</v>
       </c>
@@ -5756,19 +6123,19 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="143">
+      <c r="A11" s="140">
         <v>4</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="143">
+      <c r="E11" s="140">
         <v>2</v>
       </c>
       <c r="F11" s="53" t="s">
@@ -5786,11 +6153,11 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="143"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="55" t="s">
         <v>58</v>
       </c>
@@ -5806,11 +6173,11 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="70" t="s">
         <v>72</v>
       </c>
@@ -5826,17 +6193,17 @@
       <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140">
+      <c r="A14" s="141">
         <v>5</v>
       </c>
       <c r="B14" s="144">
         <v>42705</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140" t="s">
+      <c r="C14" s="141"/>
+      <c r="D14" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="140">
+      <c r="E14" s="141">
         <v>2</v>
       </c>
       <c r="F14" s="71" t="s">
@@ -5854,11 +6221,11 @@
       <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="141"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
       <c r="F15" s="71" t="s">
         <v>120</v>
       </c>
@@ -5874,11 +6241,11 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="141"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="141"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="142"/>
       <c r="F16" s="71" t="s">
         <v>122</v>
       </c>
@@ -5894,13 +6261,13 @@
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="141"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="141"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="141"/>
+      <c r="E17" s="142"/>
       <c r="F17" s="71" t="s">
         <v>123</v>
       </c>
@@ -5916,13 +6283,13 @@
       <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="140" t="s">
+      <c r="A18" s="142"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="141"/>
+      <c r="E18" s="142"/>
       <c r="F18" s="71" t="s">
         <v>125</v>
       </c>
@@ -5938,24 +6305,24 @@
       <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="141"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
+      <c r="A19" s="142"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="143">
+      <c r="A20" s="140">
         <v>6</v>
       </c>
-      <c r="B20" s="146">
+      <c r="B20" s="143">
         <v>42773</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143" t="s">
+      <c r="C20" s="140"/>
+      <c r="D20" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="143">
+      <c r="E20" s="140">
         <v>2</v>
       </c>
       <c r="F20" s="127" t="s">
@@ -5969,11 +6336,11 @@
       <c r="J20" s="127"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
       <c r="F21" s="127" t="s">
         <v>175</v>
       </c>
@@ -5987,11 +6354,11 @@
       <c r="J21" s="127"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
+      <c r="A22" s="140"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
       <c r="F22" s="127" t="s">
         <v>177</v>
       </c>
@@ -6005,16 +6372,16 @@
       <c r="J22" s="127"/>
     </row>
     <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
       <c r="F23" s="127" t="s">
         <v>180</v>
       </c>
       <c r="G23" s="127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H23" s="127"/>
       <c r="I23" s="130" t="s">
@@ -6030,22 +6397,22 @@
         <v>42809</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24" s="127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="127">
         <v>2</v>
       </c>
       <c r="F24" s="129" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="127" t="s">
+      <c r="H24" s="127" t="s">
         <v>189</v>
-      </c>
-      <c r="H24" s="127" t="s">
-        <v>190</v>
       </c>
       <c r="I24" s="58" t="s">
         <v>57</v>
@@ -6066,6 +6433,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="E20:E23"/>
@@ -6082,21 +6464,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6107,7 +6474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -6792,17 +7159,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
